--- a/dalrat/주선 달랏/달랏 누락 2024 (4).xlsx
+++ b/dalrat/주선 달랏/달랏 누락 2024 (4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalra\OneDrive\문서\GitHub\joosun\dalrat\달랏마트 코드\주선 달랏\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalra\OneDrive\문서\GitHub\joosun\dalrat\주선 달랏\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BCD58-A915-40A0-B4D1-DAFAD23B909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981587BA-A733-44BB-B404-7645FEA5A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26832" yWindow="672" windowWidth="16644" windowHeight="11568" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="1" r:id="rId1"/>
@@ -14442,9 +14442,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17353,7 +17353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47383B-96D4-433B-B963-66710332E559}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
